--- a/Convergence_domain.xlsx
+++ b/Convergence_domain.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2bf178765deeee/Documents/GitHub/PI_codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E6426539-EE06-4D37-9585-1037DEB69314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5579A5CE-696B-48C9-B174-6A41426F8656}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{E6426539-EE06-4D37-9585-1037DEB69314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9310DFF5-53CA-4A97-971C-F6AD8CBD5572}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convergence_domain" sheetId="1" r:id="rId1"/>
     <sheet name="Farfield7&amp;Mesh_Convergence" sheetId="2" r:id="rId2"/>
     <sheet name="Farfield5&amp;Mesh_Convergence" sheetId="4" r:id="rId3"/>
     <sheet name="Farfield3&amp;Mesh_Convergence" sheetId="5" r:id="rId4"/>
+    <sheet name="AOA" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Box Size length</t>
   </si>
@@ -108,13 +109,22 @@
   </si>
   <si>
     <t>gr_1.1</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>cm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +156,14 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,6 +220,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +513,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A925E2-2BBB-49FA-AA5B-CF431ED13BBE}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,4 +1608,216 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B78C207-CF53-4D4D-9655-5BA6E71041DF}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.23096</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3.0599999999999998E-3</v>
+      </c>
+      <c r="D2">
+        <v>-0.143288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>-0.875</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.24462</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3.3800000000000002E-3</v>
+      </c>
+      <c r="D3">
+        <v>-0.14818000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>-0.67500000000000004</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.26650000000000001</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3.9300000000000003E-3</v>
+      </c>
+      <c r="D4">
+        <v>-0.155974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4.5300000000000002E-3</v>
+      </c>
+      <c r="D5">
+        <v>-0.16370399999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="B6">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="C6">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D6">
+        <v>-0.171375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.32124000000000003</v>
+      </c>
+      <c r="C7">
+        <v>5.5500000000000002E-3</v>
+      </c>
+      <c r="D7">
+        <v>-0.175176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.3322</v>
+      </c>
+      <c r="C8">
+        <v>5.9300000000000004E-3</v>
+      </c>
+      <c r="D8">
+        <v>-0.17897299999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0.34045999999999998</v>
+      </c>
+      <c r="C9">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="D9">
+        <v>-0.181838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.125</v>
+      </c>
+      <c r="B10">
+        <v>0.35419</v>
+      </c>
+      <c r="C10">
+        <v>6.7200000000000003E-3</v>
+      </c>
+      <c r="D10">
+        <v>-0.18656500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B11">
+        <v>0.37615999999999999</v>
+      </c>
+      <c r="C11">
+        <v>7.5900000000000004E-3</v>
+      </c>
+      <c r="D11">
+        <v>-0.19406599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="B12">
+        <v>0.39813999999999999</v>
+      </c>
+      <c r="C12">
+        <v>8.5299999999999994E-3</v>
+      </c>
+      <c r="D12">
+        <v>-0.20149600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="B13">
+        <v>0.42015000000000002</v>
+      </c>
+      <c r="C13">
+        <v>9.5399999999999999E-3</v>
+      </c>
+      <c r="D13">
+        <v>-0.20885600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.44031999999999999</v>
+      </c>
+      <c r="C14">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>-0.21643000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>